--- a/biology/Médecine/Papyrus_Hearst/Papyrus_Hearst.xlsx
+++ b/biology/Médecine/Papyrus_Hearst/Papyrus_Hearst.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le papyrus Hearst est un papyrus médical datant de la XVIIIe dynastie, aux alentours des règnes de Thoutmôsis III ou Amenhotep II mais il aurait été composé plus tôt, au cours du Moyen Empire, vers -2000.
 Lors de sa découverte au printemps 1901 par George Andrew Reisner qui dirigeait à Deir el-Ballas une expédition pour le compte d'université américaine, il a été nommé plus tard d'après le nom de la mère du magnat de la presse William Randolph Hearst. D'une longueur de trois mètres cinquante, il est conservé à la bibliothèque Bancroft de l'université de Californie à Berkeley.
@@ -515,7 +527,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Todd M. Hichey, Elisabeth O'Connell, The Hearst Medical Papyrus, Bancroft Library, Université de Californie, Berkeley, 2003
 Austin Marry, Ancient Egyptian Medical Papyri, 2004</t>
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Photographie du papyrus Hearst
  Portail de l’Égypte antique   Portail de la médecine   Portail de la papyrologie                   </t>
